--- a/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -1,49 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6357AAC-6F92-48FF-AB38-4F3D221C8B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A105B2D-D578-4958-B2C2-AF1E99077DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId2"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="1">Table13[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -201,9 +196,6 @@
     <t>UT(0-4-0)</t>
   </si>
   <si>
-    <t>2/8,9/2018</t>
-  </si>
-  <si>
     <t>VL(1-0-0)</t>
   </si>
   <si>
@@ -277,9 +269,6 @@
   </si>
   <si>
     <t>VL(5-0-0)</t>
-  </si>
-  <si>
-    <t>5/14-18/2019</t>
   </si>
   <si>
     <t>7/29,30/2019</t>
@@ -776,7 +765,249 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2456,25 +2687,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69A6D4F6-A3D0-4242-9D04-DDBBEF32EBC5}" name="Table13" displayName="Table13" ref="A8:K82" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{5DE8C51B-272D-4F37-92F2-8421E2DA9D3D}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E7CF5F5F-67C1-45CC-A998-9C6F6B8B3B26}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5213BBA8-4D84-4C3C-90B3-38E69A841A65}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{721969CF-68F2-41AC-8175-6D9D6C64D448}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{9E5278E6-508E-451E-9F8A-9C16FD0537A5}" name="BALANCE" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{ECAE887E-4C04-4664-852A-B162D1BA26D6}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E29B6BA6-DA18-4DEF-A874-BCE0B47B620E}" name="EARNED " dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3C20580F-AC5A-4B32-BEB0-24AC63E64306}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{74B82D77-9AD5-41EB-9F5D-1FBE81CE0907}" name="BALANCE " dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{EE338097-F34E-4225-840A-2F37A17EE5A3}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{7B3BDB7A-046D-4A5A-AB05-4AC136924CCF}" name="REMARKS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2774,7 +3035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2799,16 +3060,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB65CCFD-F48B-4837-8F43-F568CFF06843}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A118" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2966,18 +3227,18 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.4</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>152.18</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.292000000000002</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>117.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2994,7 +3255,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="39"/>
@@ -3020,7 +3281,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
@@ -3042,7 +3303,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H12" s="39"/>
@@ -3051,9 +3312,1709 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
+        <v>43132</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="49">
+        <v>43155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>43160</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>43191</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
+        <v>43221</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>43252</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>43282</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>43313</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>43344</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>43374</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>43405</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>43435</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>43497</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="49"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>43556</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="49"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>43647</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="49"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="39">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="49">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39">
+        <v>5</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="49"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="49"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="49"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39">
+        <v>2</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="39">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="49">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="49"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="41"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="43"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C0AA19A4-29D9-44E4-8AB0-7B3F81DE362A}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{AEE0956C-1A66-4D2A-A566-B295F1496B33}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;C
+CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
+                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K123"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A103" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>52.900000000000006</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>-6.2079999999999984</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="49">
+        <v>43079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -3063,111 +5024,111 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="39">
+        <v>2</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="49">
-        <v>43079</v>
+      <c r="K13" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>43160</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="39">
+      <c r="C15" s="13"/>
+      <c r="D15" s="39">
         <v>2</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H15" s="39">
-        <v>2</v>
-      </c>
+      <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43">
-        <v>0.5</v>
+      <c r="A16" s="40"/>
+      <c r="B16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39">
+        <v>2</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
-        <v>43132</v>
-      </c>
+      <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1.25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="40">
+        <v>43191</v>
+      </c>
       <c r="B18" s="20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
@@ -3178,44 +5139,40 @@
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="49">
-        <v>43155</v>
+      <c r="K18" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
-        <v>43160</v>
-      </c>
+      <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="39">
-        <v>2</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="39"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20" t="s">
-        <v>54</v>
+      <c r="K19" s="49">
+        <v>43214</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
-        <v>2</v>
+        <v>5.8000000000000017E-2</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
@@ -3226,18 +5183,18 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="40">
+        <v>43221</v>
+      </c>
       <c r="B21" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
@@ -3248,154 +5205,148 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
-        <v>43191</v>
-      </c>
+      <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1.25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C22" s="13"/>
       <c r="D22" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20" t="s">
-        <v>56</v>
+      <c r="K22" s="49">
+        <v>43247</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40">
+        <v>43252</v>
+      </c>
       <c r="B23" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="49">
-        <v>43214</v>
+      <c r="K23" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39">
-        <v>5.8000000000000017E-2</v>
-      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
-        <v>43221</v>
-      </c>
+      <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="39">
         <v>2</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39">
-        <v>1</v>
-      </c>
+      <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>1</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="49">
-        <v>43247</v>
+        <v>43269</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
-        <v>43252</v>
-      </c>
+      <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1.25</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="39">
-        <v>2</v>
+        <v>0.20600000000000002</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>43282</v>
+      </c>
       <c r="B28" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3406,40 +5357,42 @@
         <v/>
       </c>
       <c r="H28" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20" t="s">
-        <v>62</v>
+      <c r="K28" s="49">
+        <v>43287</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="39">
-        <v>2</v>
-      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20" t="s">
-        <v>63</v>
+      <c r="K29" s="49">
+        <v>43301</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>43313</v>
+      </c>
       <c r="B30" s="20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3450,50 +5403,48 @@
         <v/>
       </c>
       <c r="H30" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="49">
-        <v>43269</v>
+      <c r="K30" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39">
-        <v>0.20600000000000002</v>
-      </c>
+      <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H32" s="39">
         <v>1</v>
@@ -3501,13 +5452,13 @@
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="49">
-        <v>43287</v>
+        <v>43349</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3517,94 +5468,90 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39">
-        <v>1</v>
-      </c>
+      <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="49">
-        <v>43301</v>
+        <v>43372</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40">
-        <v>43313</v>
-      </c>
+      <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D34" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="39">
-        <v>4</v>
-      </c>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>43374</v>
+      </c>
       <c r="B35" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>1</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="49">
+        <v>43378</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
-        <v>43344</v>
-      </c>
+      <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H36" s="39">
-        <v>1</v>
-      </c>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="49">
-        <v>43349</v>
+        <v>43398</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>43405</v>
+      </c>
       <c r="B37" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13" t="str">
@@ -3615,64 +5562,60 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="49">
-        <v>43372</v>
+        <v>43413</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>1</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="49">
+        <v>43419</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40">
-        <v>43374</v>
-      </c>
+      <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C39" s="13"/>
       <c r="D39" s="39">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="49">
-        <v>43378</v>
-      </c>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>43435</v>
+      </c>
       <c r="B40" s="20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="39">
-        <v>1</v>
-      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
@@ -3683,39 +5626,35 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="49">
-        <v>43398</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40">
-        <v>43405</v>
-      </c>
+      <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="39">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="39"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="39">
+        <v>2</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49">
-        <v>43413</v>
+      <c r="K41" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -3731,17 +5670,17 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="49">
-        <v>43419</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
@@ -3752,37 +5691,35 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
-        <v>43435</v>
-      </c>
+      <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="39"/>
+        <v>70</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="49">
-        <v>43444</v>
-      </c>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="A45" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
@@ -3791,19 +5728,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="39">
-        <v>2</v>
-      </c>
+      <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>43466</v>
+      </c>
       <c r="B46" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3814,22 +5749,22 @@
         <v/>
       </c>
       <c r="H46" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="49">
-        <v>43441</v>
+      <c r="K46" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
@@ -3841,34 +5776,38 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="39">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="39">
+        <v>3</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="20"/>
+      <c r="A49" s="40">
+        <v>43497</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -3877,64 +5816,64 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39">
+        <v>1</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="49">
+        <v>43497</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40">
-        <v>43466</v>
-      </c>
+      <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39">
+        <v>1</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="39">
-        <v>2</v>
-      </c>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>73</v>
+      <c r="K50" s="49">
+        <v>43508</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="39">
-        <v>2</v>
-      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="39">
+        <v>1</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20" t="s">
-        <v>74</v>
+      <c r="K51" s="49">
+        <v>43501</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="A52" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -3943,31 +5882,25 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="39">
-        <v>3</v>
-      </c>
+      <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H53" s="39">
         <v>1</v>
@@ -3975,36 +5908,36 @@
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="49">
-        <v>43497</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39">
-        <v>1</v>
-      </c>
+      <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>1</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="49">
-        <v>43508</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="A55" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -4013,65 +5946,61 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39">
-        <v>1</v>
-      </c>
+      <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="49">
-        <v>43501</v>
-      </c>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>43525</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="13">
-        <v>1.25</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="13"/>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="49">
+        <v>43619</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39">
+        <v>2</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="39">
-        <v>1</v>
-      </c>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="49">
-        <v>43559</v>
+      <c r="K57" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -4087,123 +6016,113 @@
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="49">
-        <v>43585</v>
+        <v>43668</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="39">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="39"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39">
+        <v>1</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20" t="s">
-        <v>78</v>
+      <c r="K59" s="49">
+        <v>43682</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39">
+        <v>5</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="49">
-        <v>43619</v>
+      <c r="K60" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
-        <v>43647</v>
-      </c>
+      <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="39">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>79</v>
+      <c r="K61" s="49">
+        <v>43736</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>43739</v>
+      </c>
       <c r="B62" s="20" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
+      <c r="D62" s="39">
+        <v>3</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="39">
-        <v>1</v>
-      </c>
+      <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="49">
-        <v>43668</v>
+      <c r="K62" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40">
-        <v>43678</v>
-      </c>
+      <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="39">
         <v>1</v>
@@ -4211,35 +6130,37 @@
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="49">
-        <v>43682</v>
+        <v>43751</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="39">
-        <v>5</v>
-      </c>
+      <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>1</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20" t="s">
-        <v>80</v>
+      <c r="K64" s="49">
+        <v>43784</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>43800</v>
+      </c>
       <c r="B65" s="20" t="s">
         <v>47</v>
       </c>
@@ -4255,40 +6176,36 @@
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="49">
-        <v>43736</v>
+        <v>43815</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40">
-        <v>43739</v>
-      </c>
+      <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1.25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C66" s="13"/>
       <c r="D66" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20" t="s">
-        <v>81</v>
+      <c r="K66" s="49">
+        <v>43819</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="A67" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
@@ -4297,74 +6214,64 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="39">
-        <v>1</v>
-      </c>
+      <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="49">
-        <v>43751</v>
-      </c>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1.25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H68" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="49">
-        <v>43784</v>
+      <c r="K68" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
-        <v>43800</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="39"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="49">
-        <v>43815</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="39">
-        <v>1</v>
-      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13" t="str">
@@ -4374,15 +6281,15 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="49">
-        <v>43819</v>
+      <c r="K70" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="40"/>
+      <c r="B71" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
@@ -4394,39 +6301,35 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="39">
-        <v>3</v>
-      </c>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="A73" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
@@ -4435,20 +6338,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="39">
-        <v>1</v>
-      </c>
+      <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="49">
-        <v>43847</v>
+      <c r="K73" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="A74" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
@@ -4460,15 +6361,13 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="A75" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
@@ -4480,28 +6379,24 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39">
         <v>2</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4512,124 +6407,114 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>43891</v>
+        <v>44013</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="39">
-        <v>2</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H77" s="39"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>88</v>
+      <c r="K77" s="49">
+        <v>44022</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D78" s="39"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39">
+        <v>2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
-        <v>43952</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A79" s="40"/>
+      <c r="B79" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="13"/>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H79" s="39"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49">
+        <v>44034</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>43983</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="39">
-        <v>2</v>
-      </c>
+        <v>44044</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="39">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4645,17 +6530,19 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="49">
-        <v>44022</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>44105</v>
+      </c>
       <c r="B83" s="20" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
@@ -4673,7 +6560,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4689,23 +6576,21 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="49">
-        <v>44034</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4714,30 +6599,30 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49">
+        <v>44175</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4753,39 +6638,33 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="49">
-        <v>44102</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B88" s="20" t="s">
+      <c r="A88" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D88" s="39">
-        <v>4</v>
-      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>44197</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4801,58 +6680,62 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="49">
-        <v>44089</v>
+        <v>44226</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44228</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="39"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D91" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39">
+        <v>5</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49">
-        <v>44175</v>
+      <c r="K91" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="A92" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -4861,18 +6744,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="39">
-        <v>1</v>
-      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="49">
-        <v>44181</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="48" t="s">
-        <v>93</v>
+      <c r="A93" s="40">
+        <v>44317</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4890,67 +6769,47 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44348</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="39">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49">
-        <v>44226</v>
-      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44378</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H95" s="39">
-        <v>2</v>
-      </c>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>44256</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>95</v>
-      </c>
+        <v>44409</v>
+      </c>
+      <c r="B96" s="20"/>
       <c r="C96" s="13"/>
-      <c r="D96" s="39">
-        <v>5</v>
-      </c>
+      <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
@@ -4960,26 +6819,26 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>44440</v>
+      </c>
       <c r="B97" s="20" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="39">
-        <v>5</v>
-      </c>
+      <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
@@ -4988,18 +6847,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>44287</v>
+        <v>44470</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -5008,18 +6865,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>44317</v>
+        <v>44501</v>
       </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C99" s="13"/>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -5028,38 +6883,38 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44531</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="49">
+        <v>44540</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40">
-        <v>44378</v>
+      <c r="A101" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -5068,18 +6923,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>44409</v>
+        <v>44562</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -5088,44 +6941,34 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>44440</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44593</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H103" s="39">
-        <v>1</v>
-      </c>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>44470</v>
+        <v>44621</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -5134,18 +6977,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>44501</v>
+        <v>44652</v>
       </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
@@ -5154,31 +6995,25 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44682</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="49">
-        <v>44540</v>
-      </c>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="48" t="s">
-        <v>98</v>
+      <c r="A107" s="40">
+        <v>44713</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5196,164 +7031,174 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>44562</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="49">
+        <v>44771</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H109" s="39"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="49">
+        <v>44774</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44805</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="13"/>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H110" s="39"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="39">
+        <v>2</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A111" s="40"/>
+      <c r="B111" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="49">
+        <v>44832</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13">
-        <v>1.25</v>
-      </c>
+        <v>44835</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="13"/>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H112" s="39"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="49">
+        <v>44844</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A113" s="40"/>
+      <c r="B113" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="13"/>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H113" s="39"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="49">
+        <v>44848</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>44743</v>
+        <v>44866</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C114" s="13"/>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="49">
-        <v>44771</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H115" s="39">
         <v>1</v>
@@ -5361,29 +7206,27 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="49">
-        <v>44774</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D116" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39">
+        <v>2</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H116" s="39">
-        <v>2</v>
-      </c>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20" t="s">
@@ -5393,7 +7236,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5403,22 +7246,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
       <c r="K117" s="49">
-        <v>44832</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
-      <c r="B118" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B118" s="20"/>
       <c r="C118" s="13"/>
-      <c r="D118" s="39">
-        <v>2</v>
-      </c>
+      <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -5428,41 +7269,27 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C119" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A119" s="40"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H119" s="39">
-        <v>1</v>
-      </c>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="49">
-        <v>44844</v>
-      </c>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
-      <c r="B120" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
@@ -5471,24 +7298,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H120" s="39">
-        <v>1</v>
-      </c>
+      <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="49">
-        <v>44848</v>
-      </c>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
-      <c r="B121" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B121" s="20"/>
       <c r="C121" s="13"/>
-      <c r="D121" s="39">
-        <v>2</v>
-      </c>
+      <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
@@ -5501,216 +7320,36 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D122" s="39">
-        <v>1</v>
-      </c>
+      <c r="A122" s="40"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="49">
-        <v>44888</v>
-      </c>
+      <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="43"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="43"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="49">
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39">
-        <v>1</v>
-      </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="49">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C125" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D125" s="39">
-        <v>2</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39">
-        <v>1</v>
-      </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="49">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5753,7 +7392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
   <dimension ref="A1:L67"/>
   <sheetViews>
